--- a/Docs/ISIS1225 - Tablas de Datos Lab 7 - Maquina 2.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 7 - Maquina 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daniel\UNIANDES\2. SEMESTRE\EDA\Lab7\abCollision-S03-G03\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Segundo Semestre\EDA\Laboratorios\Laboratorio 7\reps\abCollision-S03-G03\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBFCEEF-2257-4985-8BF8-1D917DA2CAAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2954D277-8987-40DE-8706-77D8FB961D27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="767" activeTab="1" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -157,6 +154,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,7 +435,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -508,7 +508,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -595,7 +595,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -721,7 +721,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -784,6 +784,8 @@
         <c:axId val="696671312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1623700"/>
+          <c:min val="1623600"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -862,7 +864,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -900,7 +902,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -911,6 +913,7 @@
         <c:axId val="1833162896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="23000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -984,7 +987,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1022,7 +1025,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1064,7 +1067,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1101,7 +1104,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1664,7 +1667,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA07E00A-1DDB-47A3-B681-B59870FF7EA9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1675,7 +1678,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8660296" cy="6281530"/>
+    <xdr:ext cx="8688457" cy="6303065"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1729,7 +1732,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2027,25 +2030,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2056,47 +2059,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1623637.4750000001</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>23189.949000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1623637.5319999999</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>23508.85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0.8</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>1623637.4790000001</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>24039.13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2107,40 +2110,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>1623662.1040000001</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>24528.151000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>1623662.102</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>24563.897000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>1623662.165</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>24696.098000000002</v>
       </c>
     </row>
-    <row r="21" ht="14.7" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -2366,18 +2369,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2400,14 +2403,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -2422,4 +2417,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>